--- a/doc/livraria_iteration_plan.xlsx
+++ b/doc/livraria_iteration_plan.xlsx
@@ -262,7 +262,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -306,6 +306,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -318,20 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
@@ -637,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,10 +673,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -699,10 +696,10 @@
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="24">
         <v>2</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -723,10 +720,10 @@
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="24">
         <v>2</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,10 +744,10 @@
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="24">
         <v>4</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -843,7 +840,7 @@
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="21">
         <v>1</v>
       </c>
       <c r="I8" s="8"/>
@@ -852,7 +849,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="24"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -874,13 +871,13 @@
       <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="25"/>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -895,7 +892,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -914,58 +911,58 @@
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="25"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="25"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="25"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="25"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="25"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="25"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="13">
-        <v>41732</v>
+        <v>41739</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B23:B29"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B23:B29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/doc/livraria_iteration_plan.xlsx
+++ b/doc/livraria_iteration_plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Name or key words of description</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Completar documentos de visão</t>
-  </si>
-  <si>
-    <t>Em curso</t>
   </si>
   <si>
     <t>Completar diagramas UML/Use Case</t>
@@ -262,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -317,17 +314,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +673,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -696,10 +696,10 @@
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="26">
         <v>2</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -720,10 +720,10 @@
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="26">
         <v>2</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -744,10 +744,10 @@
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="26">
         <v>4</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -769,21 +769,19 @@
         <v>14</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7">
-        <v>2</v>
-      </c>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
+      <c r="D6" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
@@ -793,16 +791,14 @@
         <v>14</v>
       </c>
       <c r="H6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -824,14 +820,14 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
+      <c r="D8" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
@@ -841,27 +837,26 @@
         <v>14</v>
       </c>
       <c r="H8" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="15">
         <v>41690</v>
@@ -871,85 +866,87 @@
       <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="25"/>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="25"/>
-    </row>
-    <row r="18" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="13">
         <v>41697</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="B22" s="13">
         <v>41701</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="25"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="25"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="25"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="25"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="25"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="B29" s="25"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="13">
         <v>41739</v>
